--- a/ISP392/Week2/Docs/ISP392_Team1_Project Tracking.xlsx
+++ b/ISP392/Week2/Docs/ISP392_Team1_Project Tracking.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Iter4" sheetId="26" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project!$A$3:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project!$A$3:$E$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iter1!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Iter2!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Iter3!$A$5:$D$7</definedName>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="124">
   <si>
     <t>Total Project Tracking</t>
   </si>
@@ -332,12 +332,6 @@
   </si>
   <si>
     <t>none</t>
-  </si>
-  <si>
-    <t>Add blog</t>
-  </si>
-  <si>
-    <t>Edit blog</t>
   </si>
   <si>
     <t>Blog Details</t>
@@ -411,9 +405,6 @@
     <t>Thành</t>
   </si>
   <si>
-    <t>Edit Feedback</t>
-  </si>
-  <si>
     <t>User Login</t>
   </si>
   <si>
@@ -455,9 +446,6 @@
     <t>This is a pop-up screen which allows the user to edit his/her profile information, including the registered ones &amp; the avatar image. Please note that s/he is not allowed to change the email</t>
   </si>
   <si>
-    <t>Edit profile</t>
-  </si>
-  <si>
     <t>My Orders</t>
   </si>
   <si>
@@ -470,9 +458,6 @@
   </si>
   <si>
     <t>Xuân Thái</t>
-  </si>
-  <si>
-    <t>Edit Orders</t>
   </si>
   <si>
     <t>Order Information</t>
@@ -500,9 +485,6 @@
 - The page also have the button/link that allows the user to add new post</t>
   </si>
   <si>
-    <t>Edit posts</t>
-  </si>
-  <si>
     <t>Post Details</t>
   </si>
   <si>
@@ -515,12 +497,6 @@
     <t>Show the paginated list of sliders (including sliders' id, title, image, backlink, status)
 - The user can filter the sliders by the status + search by title or backlink
 - For each slider, the user can choose to hide, show, edit it</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add Sliders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Edit Sliders</t>
   </si>
   <si>
     <t>Slider Details</t>
@@ -539,9 +515,6 @@
     <t>Dức Thái</t>
   </si>
   <si>
-    <t>Add Products</t>
-  </si>
-  <si>
     <t>Edit Products</t>
   </si>
   <si>
@@ -557,12 +530,6 @@
 - From each customer, the user can choose to add new, view or edit it</t>
   </si>
   <si>
-    <t>Add Customers</t>
-  </si>
-  <si>
-    <t>Edit Customers</t>
-  </si>
-  <si>
     <t>Customer Details</t>
   </si>
   <si>
@@ -579,16 +546,13 @@
 - From each feedback, the user can choose to view or change it's status</t>
   </si>
   <si>
-    <t>Edit Feedbacks</t>
+    <t>Feedback Details</t>
+  </si>
+  <si>
+    <t>Show the feedback details (contact full name, email, mobile, product, rated star, feedback, images status) from that allow the user to change its status</t>
   </si>
   <si>
     <t>Trang</t>
-  </si>
-  <si>
-    <t>Feedback Details</t>
-  </si>
-  <si>
-    <t>Show the feedback details (contact full name, email, mobile, product, rated star, feedback, images status) from that allow the user to change its status</t>
   </si>
   <si>
     <t>Sale Dashboard</t>
@@ -735,8 +699,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -793,6 +757,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -808,7 +780,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,9 +793,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,15 +855,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -861,86 +900,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -990,19 +954,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,55 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1008,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,7 +1080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,61 +1104,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,13 +1166,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,6 +1205,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1254,40 +1240,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1305,137 +1269,137 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1474,9 +1438,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="33" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
@@ -1770,12 +1731,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
@@ -1793,7 +1754,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1836,7 +1797,7 @@
     </row>
     <row r="4" ht="132" spans="1:10">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A7" si="0">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1867,7 +1828,7 @@
     </row>
     <row r="5" ht="66" spans="1:10">
       <c r="A5" s="8">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1896,9 +1857,9 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" ht="66" spans="1:10">
+    <row r="6" ht="39.6" spans="1:10">
       <c r="A6" s="8">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1911,29 +1872,29 @@
         <v>14</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" ht="66" spans="1:10">
+    <row r="7" ht="132" spans="1:10">
       <c r="A7" s="8">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
@@ -1942,29 +1903,29 @@
         <v>14</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" ht="39.6" spans="1:10">
+    <row r="8" ht="52.8" spans="1:10">
       <c r="A8" s="8">
         <f>ROW()-3</f>
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>13</v>
@@ -1973,29 +1934,29 @@
         <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" ht="132" spans="1:10">
+    <row r="9" ht="211.2" spans="1:10">
       <c r="A9" s="8">
         <f>ROW()-3</f>
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>13</v>
@@ -2004,7 +1965,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>16</v>
@@ -2013,20 +1974,20 @@
         <v>17</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" ht="52.8" spans="1:10">
+    <row r="10" ht="171.6" spans="1:10">
       <c r="A10" s="8">
-        <f t="shared" ref="A10:A15" si="1">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>13</v>
@@ -2035,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>16</v>
@@ -2044,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>23</v>
@@ -2053,11 +2014,11 @@
     </row>
     <row r="11" ht="211.2" spans="1:10">
       <c r="A11" s="8">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>13</v>
@@ -2066,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>16</v>
@@ -2075,20 +2036,20 @@
         <v>17</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" ht="171.6" spans="1:10">
+    <row r="12" ht="145.2" spans="1:10">
       <c r="A12" s="8">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>13</v>
@@ -2097,171 +2058,171 @@
         <v>14</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" ht="211.2" spans="1:10">
+    <row r="13" ht="52.8" spans="1:10">
       <c r="A13" s="8">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>13</v>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>40</v>
+      <c r="E13" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" ht="145.2" spans="1:10">
+    <row r="14" ht="66" spans="1:10">
       <c r="A14" s="8">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
+      <c r="B14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>42</v>
+      <c r="E14" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" ht="145.2" spans="1:10">
+    <row r="15" ht="105.6" spans="1:10">
       <c r="A15" s="8">
-        <f t="shared" si="1"/>
+        <f>ROW()-3</f>
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>44</v>
+      <c r="B15" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" ht="52.8" spans="1:10">
+    <row r="16" ht="39.6" spans="1:10">
       <c r="A16" s="8">
-        <f t="shared" ref="A16:A21" si="2">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>13</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>46</v>
+      <c r="B16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" ht="66" spans="1:10">
+    <row r="17" ht="52.8" spans="1:10">
       <c r="A17" s="8">
-        <f t="shared" si="2"/>
+        <f>ROW()-3</f>
         <v>14</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="21" t="s">
         <v>49</v>
       </c>
+      <c r="E17" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="F17" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>23</v>
@@ -2270,587 +2231,587 @@
     </row>
     <row r="18" ht="105.6" spans="1:10">
       <c r="A18" s="8">
-        <f t="shared" si="2"/>
+        <f>ROW()-3</f>
         <v>15</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>51</v>
+      <c r="B18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" ht="39.6" spans="1:10">
-      <c r="A19" s="8">
-        <f t="shared" si="2"/>
+    <row r="19" ht="52.8" spans="1:10">
+      <c r="A19" s="15">
+        <f>ROW()-3</f>
         <v>16</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="B19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="52.8" spans="1:10">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" ht="39.6" spans="1:10">
       <c r="A20" s="8">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>57</v>
+        <f>ROW()-3</f>
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" ht="52.8" spans="1:10">
+    <row r="21" ht="118.8" spans="1:10">
       <c r="A21" s="8">
-        <f t="shared" si="2"/>
+        <f>ROW()-3</f>
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="G21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" ht="105.6" spans="1:10">
+    <row r="22" ht="52.8" spans="1:10">
       <c r="A22" s="8">
-        <f t="shared" ref="A22:A27" si="3">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>60</v>
+      <c r="B22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" s="14" customFormat="1" ht="105.6" spans="1:10">
+    <row r="23" ht="66" spans="1:10">
       <c r="A23" s="8">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>20</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>61</v>
+      <c r="B23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" s="14" customFormat="1" ht="52.8" spans="1:10">
-      <c r="A24" s="16">
-        <f t="shared" si="3"/>
+    <row r="24" ht="26.4" spans="1:10">
+      <c r="A24" s="8">
+        <f>ROW()-3</f>
         <v>21</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="B24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="17" t="s">
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" ht="39.6" spans="1:10">
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" ht="145.2" spans="1:10">
       <c r="A25" s="8">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>22</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>68</v>
+      <c r="B25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" ht="118.8" spans="1:10">
+    <row r="26" ht="145.2" spans="1:10">
       <c r="A26" s="8">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>23</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>70</v>
+      <c r="B26" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" ht="118.8" spans="1:10">
+    <row r="27" ht="52.8" spans="1:10">
       <c r="A27" s="8">
-        <f t="shared" si="3"/>
+        <f>ROW()-3</f>
         <v>24</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>70</v>
+      <c r="B27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" ht="52.8" spans="1:10">
+    <row r="28" ht="92.4" spans="1:10">
       <c r="A28" s="8">
-        <f t="shared" ref="A28:A31" si="4">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>25</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="21" t="s">
+      <c r="B28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="G28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" ht="66" spans="1:10">
+    <row r="29" ht="105.6" spans="1:10">
       <c r="A29" s="8">
-        <f t="shared" si="4"/>
+        <f>ROW()-3</f>
         <v>26</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>75</v>
+      <c r="B29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" ht="66" spans="1:10">
+    <row r="30" ht="92.4" spans="1:10">
       <c r="A30" s="8">
-        <f t="shared" si="4"/>
+        <f>ROW()-3</f>
         <v>27</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>75</v>
+      <c r="B30" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" ht="66" spans="1:10">
+    <row r="31" ht="39.6" spans="1:10">
       <c r="A31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A31:A48" si="0">ROW()-3</f>
         <v>28</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>75</v>
+      <c r="B31" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" ht="26.4" spans="1:10">
+    <row r="32" ht="52.8" spans="1:10">
       <c r="A32" s="8">
-        <f t="shared" ref="A32:A35" si="5">ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>79</v>
+      <c r="B32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" ht="145.2" spans="1:10">
+    <row r="33" ht="158.4" spans="1:10">
       <c r="A33" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" ht="145.2" spans="1:10">
+    <row r="34" ht="158.4" spans="1:10">
       <c r="A34" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>80</v>
+      <c r="B34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" ht="145.2" spans="1:10">
+    <row r="35" ht="79.2" spans="1:10">
       <c r="A35" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>80</v>
+      <c r="B35" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" ht="52.8" spans="1:10">
+    <row r="36" ht="118.8" spans="1:10">
       <c r="A36" s="8">
-        <f t="shared" ref="A36:A39" si="6">ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="21" t="s">
+      <c r="B36" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="G36" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>23</v>
@@ -2859,592 +2820,112 @@
     </row>
     <row r="37" ht="92.4" spans="1:10">
       <c r="A37" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>86</v>
+      <c r="B37" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" ht="92.4" spans="1:10">
+    <row r="38" ht="118.8" spans="1:10">
       <c r="A38" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>86</v>
+      <c r="B38" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" ht="92.4" spans="1:10">
+    <row r="39" ht="39.6" spans="1:10">
       <c r="A39" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>86</v>
+      <c r="B39" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" ht="105.6" spans="1:10">
-      <c r="A40" s="8">
-        <f t="shared" ref="A40:A42" si="7">ROW()-3</f>
-        <v>37</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" ht="92.4" spans="1:10">
-      <c r="A41" s="8">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" ht="92.4" spans="1:10">
-      <c r="A42" s="8">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" ht="39.6" spans="1:10">
-      <c r="A43" s="8">
-        <f t="shared" ref="A43:A60" si="8">ROW()-3</f>
-        <v>40</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" ht="52.8" spans="1:10">
-      <c r="A44" s="8">
-        <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" ht="158.4" spans="1:10">
-      <c r="A45" s="8">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" ht="158.4" spans="1:10">
-      <c r="A46" s="8">
-        <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" ht="79.2" spans="1:10">
-      <c r="A47" s="8">
-        <f t="shared" si="8"/>
-        <v>44</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" ht="118.8" spans="1:10">
-      <c r="A48" s="8">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="9"/>
-    </row>
-    <row r="49" ht="92.4" spans="1:10">
-      <c r="A49" s="8">
-        <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="9"/>
-    </row>
-    <row r="50" ht="118.8" spans="1:10">
-      <c r="A50" s="8">
-        <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="9"/>
-    </row>
-    <row r="51" ht="39.6" spans="1:10">
-      <c r="A51" s="8">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:E51">
+  <autoFilter ref="A3:E39">
     <extLst/>
   </autoFilter>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G4:G5 G8:G9">
-      <formula1>"To Do, Doing, Done, Updated"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
       <formula1>"iter1, iter2, iter3, iter4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H6 H7 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H8:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H6:H7">
       <formula1>"iter2, iter3, iter4, iter5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I4:I5 I8:I9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G4:G5 G6:G7">
+      <formula1>"To Do, Doing, Done, Updated"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I4:I5 I6:I7">
       <formula1>"none, iter2, iter3, iter4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3483,22 +2964,22 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3506,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -3521,13 +3002,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="26.4" spans="1:9">
@@ -3536,25 +3017,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -3564,25 +3045,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -3631,22 +3112,22 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3654,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -3669,13 +3150,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="26.4" spans="1:9">
@@ -3684,25 +3165,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -3712,25 +3193,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -3779,22 +3260,22 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3802,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -3817,13 +3298,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="26.4" spans="1:9">
@@ -3832,25 +3313,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -3860,25 +3341,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -3927,22 +3408,22 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3950,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -3965,13 +3446,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="26.4" spans="1:9">
@@ -3980,25 +3461,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -4008,25 +3489,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I7" s="9"/>
     </row>
